--- a/lukisongroup/cronjob/tmp_cronjob/PostmanSalesSchadule.xlsx
+++ b/lukisongroup/cronjob/tmp_cronjob/PostmanSalesSchadule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,15 @@
     <t>Vicky</t>
   </si>
   <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>Demo 1</t>
+  </si>
+  <si>
+    <t>demo2</t>
+  </si>
+  <si>
     <t>USER_NM</t>
   </si>
   <si>
@@ -123,21 +132,84 @@
     <t>LAG</t>
   </si>
   <si>
+    <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>Senin</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>GENAP</t>
+  </si>
+  <si>
+    <t>JAKARTA TIMUR - AREA 1 Pigwin Team</t>
+  </si>
+  <si>
+    <t>JT.1.1.1</t>
+  </si>
+  <si>
+    <t>CUS.2016.000565</t>
+  </si>
+  <si>
+    <t>Super Indo Cipinang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000245</t>
+  </si>
+  <si>
+    <t>Ramayana Mal Klender</t>
+  </si>
+  <si>
+    <t>DKI Jakarta</t>
+  </si>
+  <si>
+    <t>Jakarta Timur</t>
+  </si>
+  <si>
+    <t>CUS.2016.000055</t>
+  </si>
+  <si>
+    <t>Carrefour Buaran</t>
+  </si>
+  <si>
+    <t>CUS.2016.000088</t>
+  </si>
+  <si>
+    <t>Giant Pondok Kopi</t>
+  </si>
+  <si>
+    <t>CUS.2016.000090</t>
+  </si>
+  <si>
+    <t>Giant Bintara</t>
+  </si>
+  <si>
+    <t>Jawa Barat</t>
+  </si>
+  <si>
+    <t>Bekasi</t>
+  </si>
+  <si>
+    <t>CUS.2016.000244</t>
+  </si>
+  <si>
+    <t>Ramayana Perumnas Klender</t>
+  </si>
+  <si>
+    <t>2016-08-29</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
     <t>2016-08-17</t>
   </si>
   <si>
     <t>Rabu</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>GENAP</t>
-  </si>
-  <si>
-    <t>JAKARTA TIMUR - AREA 1 Pigwin Team</t>
-  </si>
-  <si>
     <t>JT.1.1.3</t>
   </si>
   <si>
@@ -156,12 +228,6 @@
     <t>Transmart Kalimalang</t>
   </si>
   <si>
-    <t>DKI Jakarta</t>
-  </si>
-  <si>
-    <t>Jakarta Timur</t>
-  </si>
-  <si>
     <t>CUS.2016.000268</t>
   </si>
   <si>
@@ -186,6 +252,39 @@
     <t>Yogya Pondok Bambu</t>
   </si>
   <si>
+    <t>2016-08-24</t>
+  </si>
+  <si>
+    <t>GANJIL</t>
+  </si>
+  <si>
+    <t>CUS.2016.000130</t>
+  </si>
+  <si>
+    <t>Super Indo Jati Kramat</t>
+  </si>
+  <si>
+    <t>CUS.2016.000150</t>
+  </si>
+  <si>
+    <t>Super Indo Kincan</t>
+  </si>
+  <si>
+    <t>CUS.2016.000587</t>
+  </si>
+  <si>
+    <t>Super Indo Caman</t>
+  </si>
+  <si>
+    <t>CUS.2016.000588</t>
+  </si>
+  <si>
+    <t>Super Indo Jaka Sampurna</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
     <t>2016-08-18</t>
   </si>
   <si>
@@ -237,6 +336,48 @@
     <t>Rajawali Pulo Gadung</t>
   </si>
   <si>
+    <t>2016-08-25</t>
+  </si>
+  <si>
+    <t>CUS.2016.000125</t>
+  </si>
+  <si>
+    <t>Super Indo Kalimalang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000591</t>
+  </si>
+  <si>
+    <t>Super Indo MM</t>
+  </si>
+  <si>
+    <t>CUS.2016.000592</t>
+  </si>
+  <si>
+    <t>Bright Bekasi</t>
+  </si>
+  <si>
+    <t>CUS.2016.000080</t>
+  </si>
+  <si>
+    <t>Carrefour Bekasi Timur</t>
+  </si>
+  <si>
+    <t>CUS.2016.000593</t>
+  </si>
+  <si>
+    <t>Giant Pekayon</t>
+  </si>
+  <si>
+    <t>CUS.2016.000594</t>
+  </si>
+  <si>
+    <t>Bright Jati Asih</t>
+  </si>
+  <si>
+    <t>2016-09-01</t>
+  </si>
+  <si>
     <t>2016-08-19</t>
   </si>
   <si>
@@ -264,6 +405,9 @@
     <t>Giant Ujung Aspal</t>
   </si>
   <si>
+    <t>2016-09-02</t>
+  </si>
+  <si>
     <t>2016-08-20</t>
   </si>
   <si>
@@ -312,15 +456,15 @@
     <t>Bright Otista</t>
   </si>
   <si>
+    <t>2016-08-27</t>
+  </si>
+  <si>
+    <t>2016-09-03</t>
+  </si>
+  <si>
     <t>2016-08-22</t>
   </si>
   <si>
-    <t>Senin</t>
-  </si>
-  <si>
-    <t>GANJIL</t>
-  </si>
-  <si>
     <t>JT.1.2.1</t>
   </si>
   <si>
@@ -330,18 +474,438 @@
     <t>Giant Harapan Indah</t>
   </si>
   <si>
-    <t>Jawa Barat</t>
-  </si>
-  <si>
-    <t>Bekasi</t>
-  </si>
-  <si>
     <t>CUS.2016.000365</t>
   </si>
   <si>
     <t>Giant Ujung Menteng</t>
   </si>
   <si>
+    <t>2016-08-26</t>
+  </si>
+  <si>
+    <t>JT.1.2.5</t>
+  </si>
+  <si>
+    <t>CUS.2016.000597</t>
+  </si>
+  <si>
+    <t>Giant Jati Rahayu</t>
+  </si>
+  <si>
+    <t>CUS.2016.000562</t>
+  </si>
+  <si>
+    <t>Spar Pondok Gede</t>
+  </si>
+  <si>
+    <t>CUS.2016.000322</t>
+  </si>
+  <si>
+    <t>Giant Pondok Gede</t>
+  </si>
+  <si>
+    <t>CUS.2016.000153</t>
+  </si>
+  <si>
+    <t>Super Indo Pasar Rebo</t>
+  </si>
+  <si>
+    <t>CUS.2016.000229</t>
+  </si>
+  <si>
+    <t>Ramayana Graha Cijantung</t>
+  </si>
+  <si>
+    <t>CUS.2016.000053</t>
+  </si>
+  <si>
+    <t>Carrefour Taman Mini</t>
+  </si>
+  <si>
+    <t>JAKARTA SELATAN - AREA 1 Kancil Team</t>
+  </si>
+  <si>
+    <t>JS.1.1.1</t>
+  </si>
+  <si>
+    <t>CUS.2016.000206</t>
+  </si>
+  <si>
+    <t>Koperasi Fatmawati</t>
+  </si>
+  <si>
+    <t>CUS.2016.000194</t>
+  </si>
+  <si>
+    <t>Giant Fatmawati</t>
+  </si>
+  <si>
+    <t>CUS.2016.000324</t>
+  </si>
+  <si>
+    <t>LotteMart Fatmawati</t>
+  </si>
+  <si>
+    <t>CUS.2016.000325</t>
+  </si>
+  <si>
+    <t>Bright Fatmawati 1</t>
+  </si>
+  <si>
+    <t>CUS.2016.000326</t>
+  </si>
+  <si>
+    <t>Bright Fatmawati 2</t>
+  </si>
+  <si>
+    <t>JS.1.1.3</t>
+  </si>
+  <si>
+    <t>CUS.2016.000049</t>
+  </si>
+  <si>
+    <t>Carrefour Lebak Bulus</t>
+  </si>
+  <si>
+    <t>CUS.2016.000052</t>
+  </si>
+  <si>
+    <t>Carrefour Kebayoran</t>
+  </si>
+  <si>
+    <t>CUS.2016.000230</t>
+  </si>
+  <si>
+    <t>Ramayana Pasar Kebayoran Lama</t>
+  </si>
+  <si>
+    <t>CUS.2016.000214</t>
+  </si>
+  <si>
+    <t>LotteMart Gandaria</t>
+  </si>
+  <si>
+    <t>CUS.2016.000173</t>
+  </si>
+  <si>
+    <t>Bright Pondok Indah</t>
+  </si>
+  <si>
+    <t>CUS.2016.000461</t>
+  </si>
+  <si>
+    <t>TheFoodHall Pondok Indah Mall</t>
+  </si>
+  <si>
+    <t>CUS.2016.000388</t>
+  </si>
+  <si>
+    <t>Super Indo Cirendeu</t>
+  </si>
+  <si>
+    <t>CUS.2016.000383</t>
+  </si>
+  <si>
+    <t>Super Indo RE.Martadinata</t>
+  </si>
+  <si>
+    <t>Banten</t>
+  </si>
+  <si>
+    <t>Tangerang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000589</t>
+  </si>
+  <si>
+    <t>Bright Cirendeu</t>
+  </si>
+  <si>
+    <t>JS.1.1.4</t>
+  </si>
+  <si>
+    <t>CUS.2016.000370</t>
+  </si>
+  <si>
+    <t>Kings Mart</t>
+  </si>
+  <si>
+    <t>CUS.2016.000371</t>
+  </si>
+  <si>
+    <t>Giant Cinere Mall</t>
+  </si>
+  <si>
+    <t>Depok</t>
+  </si>
+  <si>
+    <t>CUS.2016.000115</t>
+  </si>
+  <si>
+    <t>Super Indo Cinere</t>
+  </si>
+  <si>
+    <t>CUS.2016.000375</t>
+  </si>
+  <si>
+    <t>TheFoodHall Vila Delima</t>
+  </si>
+  <si>
+    <t>CUS.2016.000097</t>
+  </si>
+  <si>
+    <t>Giant Poins Square Lebak Bulus</t>
+  </si>
+  <si>
+    <t>CUS.2016.000382</t>
+  </si>
+  <si>
+    <t>Ramayana Ciputat</t>
+  </si>
+  <si>
+    <t>CUS.2016.000072</t>
+  </si>
+  <si>
+    <t>Carrefour Ciputat</t>
+  </si>
+  <si>
+    <t>JS.1.1.5</t>
+  </si>
+  <si>
+    <t>CUS.2016.000437</t>
+  </si>
+  <si>
+    <t>Bright Lenteng Agung</t>
+  </si>
+  <si>
+    <t>CUS.2016.000051</t>
+  </si>
+  <si>
+    <t>Carrefour Pasar Minggu</t>
+  </si>
+  <si>
+    <t>CUS.2016.000271</t>
+  </si>
+  <si>
+    <t>Ramayana Pasar Minggu</t>
+  </si>
+  <si>
+    <t>CUS.2016.000270</t>
+  </si>
+  <si>
+    <t>Giant Plasa Kalibata</t>
+  </si>
+  <si>
+    <t>CUS.2016.000580</t>
+  </si>
+  <si>
+    <t>Rajawali Gatot Subroto</t>
+  </si>
+  <si>
+    <t>CUS.2016.000273</t>
+  </si>
+  <si>
+    <t>Giant Mampang</t>
+  </si>
+  <si>
+    <t>JS.1.1.6</t>
+  </si>
+  <si>
+    <t>CUS.2016.000300</t>
+  </si>
+  <si>
+    <t>Ramayana Tebet</t>
+  </si>
+  <si>
+    <t>CUS.2016.000117</t>
+  </si>
+  <si>
+    <t>Super Indo Tebet</t>
+  </si>
+  <si>
+    <t>CUS.2016.000118</t>
+  </si>
+  <si>
+    <t>Super Indo Pancoran</t>
+  </si>
+  <si>
+    <t>CUS.2016.000116</t>
+  </si>
+  <si>
+    <t>Super Indo Mampang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000182</t>
+  </si>
+  <si>
+    <t>Bright Tendean</t>
+  </si>
+  <si>
+    <t>CUS.2016.000583</t>
+  </si>
+  <si>
+    <t>Bonjour Tendean</t>
+  </si>
+  <si>
+    <t>JS.1.2.1</t>
+  </si>
+  <si>
+    <t>CUS.2016.000101</t>
+  </si>
+  <si>
+    <t>Giant Cimanggis</t>
+  </si>
+  <si>
+    <t>CUS.2016.000159</t>
+  </si>
+  <si>
+    <t>Bright Gandaria</t>
+  </si>
+  <si>
+    <t>CUS.2016.000079</t>
+  </si>
+  <si>
+    <t>Carrefour Cibinong City Mall</t>
+  </si>
+  <si>
+    <t>Bogor</t>
+  </si>
+  <si>
+    <t>CUS.2016.000584</t>
+  </si>
+  <si>
+    <t>Giant SPM Cibinong</t>
+  </si>
+  <si>
+    <t>CUS.2016.000585</t>
+  </si>
+  <si>
+    <t>Giant Tole Iskandar</t>
+  </si>
+  <si>
+    <t>JS.1.2.4</t>
+  </si>
+  <si>
+    <t>CUS.2016.000351</t>
+  </si>
+  <si>
+    <t>Koperasi Falatehan</t>
+  </si>
+  <si>
+    <t>CUS.2016.000349</t>
+  </si>
+  <si>
+    <t>Giant Blok M</t>
+  </si>
+  <si>
+    <t>CUS.2016.000046</t>
+  </si>
+  <si>
+    <t>Carrefour Blok M Square</t>
+  </si>
+  <si>
+    <t>CUS.2016.000350</t>
+  </si>
+  <si>
+    <t>Papaya Melawai</t>
+  </si>
+  <si>
+    <t>CUS.2016.000352</t>
+  </si>
+  <si>
+    <t>TheFoodHall Senayan City</t>
+  </si>
+  <si>
+    <t>CUS.2016.000353</t>
+  </si>
+  <si>
+    <t>The FoodHall Plaza Senayan</t>
+  </si>
+  <si>
+    <t>CUS.2016.000595</t>
+  </si>
+  <si>
+    <t>Lottemart Ratu Plaza</t>
+  </si>
+  <si>
+    <t>JS.1.2.5</t>
+  </si>
+  <si>
+    <t>CUS.2016.000458</t>
+  </si>
+  <si>
+    <t>Nasrindo Swalayan 1</t>
+  </si>
+  <si>
+    <t>CUS.2016.000175</t>
+  </si>
+  <si>
+    <t>Bright Kemang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000422</t>
+  </si>
+  <si>
+    <t>LotteMart Kemang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000250</t>
+  </si>
+  <si>
+    <t>Kemchick Kemang</t>
+  </si>
+  <si>
+    <t>CUS.2016.000255</t>
+  </si>
+  <si>
+    <t>12 Mart Swalayan</t>
+  </si>
+  <si>
+    <t>CUS.2016.000207</t>
+  </si>
+  <si>
+    <t>Carrefour Cilandak</t>
+  </si>
+  <si>
+    <t>JS.1.2.6</t>
+  </si>
+  <si>
+    <t>CUS.2016.000407</t>
+  </si>
+  <si>
+    <t>JM Market</t>
+  </si>
+  <si>
+    <t>CUS.2016.000235</t>
+  </si>
+  <si>
+    <t>Nasrindo Swalayan 2</t>
+  </si>
+  <si>
+    <t>CUS.2016.000107</t>
+  </si>
+  <si>
+    <t>Giant Margo City</t>
+  </si>
+  <si>
+    <t>CUS.2016.000403</t>
+  </si>
+  <si>
+    <t>Ramayana Depok</t>
+  </si>
+  <si>
+    <t>CUS.2016.000076</t>
+  </si>
+  <si>
+    <t>Carrefour Depok</t>
+  </si>
+  <si>
+    <t>CUS.2016.000406</t>
+  </si>
+  <si>
+    <t>Daily Foodhall Depok Mall</t>
+  </si>
+  <si>
     <t>Sales</t>
   </si>
   <si>
@@ -469,6 +1033,12 @@
   </si>
   <si>
     <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>JT6</t>
   </si>
 </sst>
 </file>
@@ -589,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -618,6 +1188,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -989,10 +1562,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1002,6 +1575,8 @@
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1135,6 +1710,42 @@
         <v>87883045580</v>
       </c>
       <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1157,7 +1768,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:FS162"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1173,10 +1784,10 @@
     <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="41.132813" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="43.560791" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="29.421387" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -1206,299 +1817,416 @@
     <col min="36" max="36" width="9.10" bestFit="true" style="0"/>
     <col min="37" max="37" width="9.10" bestFit="true" style="0"/>
     <col min="38" max="38" width="9.10" bestFit="true" style="0"/>
+    <col min="39" max="39" width="9.10" bestFit="true" style="0"/>
+    <col min="40" max="40" width="9.10" bestFit="true" style="0"/>
+    <col min="41" max="41" width="9.10" bestFit="true" style="0"/>
+    <col min="42" max="42" width="9.10" bestFit="true" style="0"/>
+    <col min="43" max="43" width="9.10" bestFit="true" style="0"/>
+    <col min="44" max="44" width="9.10" bestFit="true" style="0"/>
+    <col min="45" max="45" width="9.10" bestFit="true" style="0"/>
+    <col min="46" max="46" width="9.10" bestFit="true" style="0"/>
+    <col min="47" max="47" width="9.10" bestFit="true" style="0"/>
+    <col min="48" max="48" width="9.10" bestFit="true" style="0"/>
+    <col min="49" max="49" width="9.10" bestFit="true" style="0"/>
+    <col min="50" max="50" width="9.10" bestFit="true" style="0"/>
+    <col min="51" max="51" width="9.10" bestFit="true" style="0"/>
+    <col min="52" max="52" width="9.10" bestFit="true" style="0"/>
+    <col min="53" max="53" width="9.10" bestFit="true" style="0"/>
+    <col min="54" max="54" width="9.10" bestFit="true" style="0"/>
+    <col min="55" max="55" width="9.10" bestFit="true" style="0"/>
+    <col min="56" max="56" width="9.10" bestFit="true" style="0"/>
+    <col min="57" max="57" width="9.10" bestFit="true" style="0"/>
+    <col min="58" max="58" width="9.10" bestFit="true" style="0"/>
+    <col min="59" max="59" width="9.10" bestFit="true" style="0"/>
+    <col min="60" max="60" width="9.10" bestFit="true" style="0"/>
+    <col min="61" max="61" width="9.10" bestFit="true" style="0"/>
+    <col min="62" max="62" width="9.10" bestFit="true" style="0"/>
+    <col min="63" max="63" width="9.10" bestFit="true" style="0"/>
+    <col min="64" max="64" width="9.10" bestFit="true" style="0"/>
+    <col min="65" max="65" width="9.10" bestFit="true" style="0"/>
+    <col min="66" max="66" width="9.10" bestFit="true" style="0"/>
+    <col min="67" max="67" width="9.10" bestFit="true" style="0"/>
+    <col min="68" max="68" width="9.10" bestFit="true" style="0"/>
+    <col min="69" max="69" width="9.10" bestFit="true" style="0"/>
+    <col min="70" max="70" width="9.10" bestFit="true" style="0"/>
+    <col min="71" max="71" width="9.10" bestFit="true" style="0"/>
+    <col min="72" max="72" width="9.10" bestFit="true" style="0"/>
+    <col min="73" max="73" width="9.10" bestFit="true" style="0"/>
+    <col min="74" max="74" width="9.10" bestFit="true" style="0"/>
+    <col min="75" max="75" width="9.10" bestFit="true" style="0"/>
+    <col min="76" max="76" width="9.10" bestFit="true" style="0"/>
+    <col min="77" max="77" width="9.10" bestFit="true" style="0"/>
+    <col min="78" max="78" width="9.10" bestFit="true" style="0"/>
+    <col min="79" max="79" width="9.10" bestFit="true" style="0"/>
+    <col min="80" max="80" width="9.10" bestFit="true" style="0"/>
+    <col min="81" max="81" width="9.10" bestFit="true" style="0"/>
+    <col min="82" max="82" width="9.10" bestFit="true" style="0"/>
+    <col min="83" max="83" width="9.10" bestFit="true" style="0"/>
+    <col min="84" max="84" width="9.10" bestFit="true" style="0"/>
+    <col min="85" max="85" width="9.10" bestFit="true" style="0"/>
+    <col min="86" max="86" width="9.10" bestFit="true" style="0"/>
+    <col min="87" max="87" width="9.10" bestFit="true" style="0"/>
+    <col min="88" max="88" width="9.10" bestFit="true" style="0"/>
+    <col min="89" max="89" width="9.10" bestFit="true" style="0"/>
+    <col min="90" max="90" width="9.10" bestFit="true" style="0"/>
+    <col min="91" max="91" width="9.10" bestFit="true" style="0"/>
+    <col min="92" max="92" width="9.10" bestFit="true" style="0"/>
+    <col min="93" max="93" width="9.10" bestFit="true" style="0"/>
+    <col min="94" max="94" width="9.10" bestFit="true" style="0"/>
+    <col min="95" max="95" width="9.10" bestFit="true" style="0"/>
+    <col min="96" max="96" width="9.10" bestFit="true" style="0"/>
+    <col min="97" max="97" width="9.10" bestFit="true" style="0"/>
+    <col min="98" max="98" width="9.10" bestFit="true" style="0"/>
+    <col min="99" max="99" width="9.10" bestFit="true" style="0"/>
+    <col min="100" max="100" width="9.10" bestFit="true" style="0"/>
+    <col min="101" max="101" width="9.10" bestFit="true" style="0"/>
+    <col min="102" max="102" width="9.10" bestFit="true" style="0"/>
+    <col min="103" max="103" width="9.10" bestFit="true" style="0"/>
+    <col min="104" max="104" width="9.10" bestFit="true" style="0"/>
+    <col min="105" max="105" width="9.10" bestFit="true" style="0"/>
+    <col min="106" max="106" width="9.10" bestFit="true" style="0"/>
+    <col min="107" max="107" width="9.10" bestFit="true" style="0"/>
+    <col min="108" max="108" width="9.10" bestFit="true" style="0"/>
+    <col min="109" max="109" width="9.10" bestFit="true" style="0"/>
+    <col min="110" max="110" width="9.10" bestFit="true" style="0"/>
+    <col min="111" max="111" width="9.10" bestFit="true" style="0"/>
+    <col min="112" max="112" width="9.10" bestFit="true" style="0"/>
+    <col min="113" max="113" width="9.10" bestFit="true" style="0"/>
+    <col min="114" max="114" width="9.10" bestFit="true" style="0"/>
+    <col min="115" max="115" width="9.10" bestFit="true" style="0"/>
+    <col min="116" max="116" width="9.10" bestFit="true" style="0"/>
+    <col min="117" max="117" width="9.10" bestFit="true" style="0"/>
+    <col min="118" max="118" width="9.10" bestFit="true" style="0"/>
+    <col min="119" max="119" width="9.10" bestFit="true" style="0"/>
+    <col min="120" max="120" width="9.10" bestFit="true" style="0"/>
+    <col min="121" max="121" width="9.10" bestFit="true" style="0"/>
+    <col min="122" max="122" width="9.10" bestFit="true" style="0"/>
+    <col min="123" max="123" width="9.10" bestFit="true" style="0"/>
+    <col min="124" max="124" width="9.10" bestFit="true" style="0"/>
+    <col min="125" max="125" width="9.10" bestFit="true" style="0"/>
+    <col min="126" max="126" width="9.10" bestFit="true" style="0"/>
+    <col min="127" max="127" width="9.10" bestFit="true" style="0"/>
+    <col min="128" max="128" width="9.10" bestFit="true" style="0"/>
+    <col min="129" max="129" width="9.10" bestFit="true" style="0"/>
+    <col min="130" max="130" width="9.10" bestFit="true" style="0"/>
+    <col min="131" max="131" width="9.10" bestFit="true" style="0"/>
+    <col min="132" max="132" width="9.10" bestFit="true" style="0"/>
+    <col min="133" max="133" width="9.10" bestFit="true" style="0"/>
+    <col min="134" max="134" width="9.10" bestFit="true" style="0"/>
+    <col min="135" max="135" width="9.10" bestFit="true" style="0"/>
+    <col min="136" max="136" width="9.10" bestFit="true" style="0"/>
+    <col min="137" max="137" width="9.10" bestFit="true" style="0"/>
+    <col min="138" max="138" width="9.10" bestFit="true" style="0"/>
+    <col min="139" max="139" width="9.10" bestFit="true" style="0"/>
+    <col min="140" max="140" width="9.10" bestFit="true" style="0"/>
+    <col min="141" max="141" width="9.10" bestFit="true" style="0"/>
+    <col min="142" max="142" width="9.10" bestFit="true" style="0"/>
+    <col min="143" max="143" width="9.10" bestFit="true" style="0"/>
+    <col min="144" max="144" width="9.10" bestFit="true" style="0"/>
+    <col min="145" max="145" width="9.10" bestFit="true" style="0"/>
+    <col min="146" max="146" width="9.10" bestFit="true" style="0"/>
+    <col min="147" max="147" width="9.10" bestFit="true" style="0"/>
+    <col min="148" max="148" width="9.10" bestFit="true" style="0"/>
+    <col min="149" max="149" width="9.10" bestFit="true" style="0"/>
+    <col min="150" max="150" width="9.10" bestFit="true" style="0"/>
+    <col min="151" max="151" width="9.10" bestFit="true" style="0"/>
+    <col min="152" max="152" width="9.10" bestFit="true" style="0"/>
+    <col min="153" max="153" width="9.10" bestFit="true" style="0"/>
+    <col min="154" max="154" width="9.10" bestFit="true" style="0"/>
+    <col min="155" max="155" width="9.10" bestFit="true" style="0"/>
+    <col min="156" max="156" width="9.10" bestFit="true" style="0"/>
+    <col min="157" max="157" width="9.10" bestFit="true" style="0"/>
+    <col min="158" max="158" width="9.10" bestFit="true" style="0"/>
+    <col min="159" max="159" width="9.10" bestFit="true" style="0"/>
+    <col min="160" max="160" width="9.10" bestFit="true" style="0"/>
+    <col min="161" max="161" width="9.10" bestFit="true" style="0"/>
+    <col min="162" max="162" width="9.10" bestFit="true" style="0"/>
+    <col min="163" max="163" width="9.10" bestFit="true" style="0"/>
+    <col min="164" max="164" width="9.10" bestFit="true" style="0"/>
+    <col min="165" max="165" width="9.10" bestFit="true" style="0"/>
+    <col min="166" max="166" width="9.10" bestFit="true" style="0"/>
+    <col min="167" max="167" width="9.10" bestFit="true" style="0"/>
+    <col min="168" max="168" width="9.10" bestFit="true" style="0"/>
+    <col min="169" max="169" width="9.10" bestFit="true" style="0"/>
+    <col min="170" max="170" width="9.10" bestFit="true" style="0"/>
+    <col min="171" max="171" width="9.10" bestFit="true" style="0"/>
+    <col min="172" max="172" width="9.10" bestFit="true" style="0"/>
+    <col min="173" max="173" width="9.10" bestFit="true" style="0"/>
+    <col min="174" max="174" width="9.10" bestFit="true" style="0"/>
+    <col min="175" max="175" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:175">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:175">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:175">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" s="6">
         <v>13000</v>
       </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:175">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="L4" s="5">
         <v>13000</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:175">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L5" s="6">
         <v>13000</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:175">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="5">
+        <v>17000</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:175">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="5">
-        <v>13000</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7" s="6">
         <v>13000</v>
@@ -1506,165 +2234,153 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:175">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:175">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:175">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="5">
-        <v>13000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="5">
         <v>13000</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:175">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L11" s="6">
         <v>13000</v>
@@ -1672,73 +2388,79 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:175">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>17000</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:175">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L13" s="6">
         <v>13000</v>
@@ -1746,111 +2468,113 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:175">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:175">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="6">
+        <v>13000</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:175">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L16" s="5">
         <v>13000</v>
@@ -1858,113 +2582,119 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:175">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="6">
+        <v>13000</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:175">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L18" s="5">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:175">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L19" s="6">
         <v>13000</v>
@@ -1972,153 +2702,153 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:175">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="5">
-        <v>13000</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:175">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="6">
+        <v>13000</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:175">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="L22" s="5">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:175">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L23" s="6">
         <v>13000</v>
@@ -2126,85 +2856,5297 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:175">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="L24" s="5">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:175">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L25" s="6">
         <v>13000</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:175">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:175">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:175">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="5">
+        <v>17000</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:175">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="6">
+        <v>17000</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:175">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:175">
+      <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:175">
+      <c r="A32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:175">
+      <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:175">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:175">
+      <c r="A35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:175">
+      <c r="A36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:175">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:175">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:175">
+      <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:175">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:175">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L41" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:175">
+      <c r="A42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:175">
+      <c r="A43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:175">
+      <c r="A44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:175">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:175">
+      <c r="A46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="5">
+        <v>17000</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:175">
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:175">
+      <c r="A48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:175">
+      <c r="A49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="6">
+        <v>17000</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:175">
+      <c r="A50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:175">
+      <c r="A51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:175">
+      <c r="A52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:175">
+      <c r="A53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:175">
+      <c r="A54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:175">
+      <c r="A55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L55" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:175">
+      <c r="A56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:175">
+      <c r="A57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L57" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:175">
+      <c r="A58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:175">
+      <c r="A59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:175">
+      <c r="A60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L60" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:175">
+      <c r="A61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:175">
+      <c r="A62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:175">
+      <c r="A63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L63" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:175">
+      <c r="A64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:175">
+      <c r="A65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L65" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:175">
+      <c r="A66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L66" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:175">
+      <c r="A67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L67" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:175">
+      <c r="A68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:175">
+      <c r="A69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L69" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:175">
+      <c r="A70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L70" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:175">
+      <c r="A71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L71" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:175">
+      <c r="A72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L72" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:175">
+      <c r="A73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L73" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:175">
+      <c r="A74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:175">
+      <c r="A75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L75" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:175">
+      <c r="A76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L76" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:175">
+      <c r="A77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L77" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:175">
+      <c r="A78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L78" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:175">
+      <c r="A79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L79" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:175">
+      <c r="A80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:175">
+      <c r="A81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L81" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:175">
+      <c r="A82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L82" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:175">
+      <c r="A83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L83" s="6">
+        <v>17000</v>
+      </c>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:175">
+      <c r="A84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L84" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:175">
+      <c r="A85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:175">
+      <c r="A86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:175">
+      <c r="A87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L87" s="6">
+        <v>17000</v>
+      </c>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:175">
+      <c r="A88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L88" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:175">
+      <c r="A89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L89" s="6">
+        <v>13000</v>
+      </c>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:175">
+      <c r="A90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L90" s="5">
+        <v>13000</v>
+      </c>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:175">
+      <c r="A91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:175">
+      <c r="A92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L92" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:175">
+      <c r="A93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L93" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:175">
+      <c r="A94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:175">
+      <c r="A95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:175">
+      <c r="A96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:175">
+      <c r="A97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L97" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:175">
+      <c r="A98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L98" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:175">
+      <c r="A99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:175">
+      <c r="A100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:175">
+      <c r="A101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L101" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:175">
+      <c r="A102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L102" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:175">
+      <c r="A103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L103" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:175">
+      <c r="A104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="1:175">
+      <c r="A105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:175">
+      <c r="A106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L106" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:175">
+      <c r="A107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L107" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="1:175">
+      <c r="A108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L108" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:175">
+      <c r="A109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L109" s="6">
+        <v>15000</v>
+      </c>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="1:175">
+      <c r="A110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+    </row>
+    <row r="111" spans="1:175">
+      <c r="A111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L111" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="1:175">
+      <c r="A112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L112" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+    </row>
+    <row r="113" spans="1:175">
+      <c r="A113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L113" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:175">
+      <c r="A114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+    </row>
+    <row r="115" spans="1:175">
+      <c r="A115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="1:175">
+      <c r="A116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L116" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+    </row>
+    <row r="117" spans="1:175">
+      <c r="A117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="1:175">
+      <c r="A118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L118" s="5">
+        <v>16400</v>
+      </c>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+    </row>
+    <row r="119" spans="1:175">
+      <c r="A119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L119" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="1:175">
+      <c r="A120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L120" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:175">
+      <c r="A121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L121" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:175">
+      <c r="A122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L122" s="5">
+        <v>15000</v>
+      </c>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+    </row>
+    <row r="123" spans="1:175">
+      <c r="A123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L123" s="6">
+        <v>15000</v>
+      </c>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="1:175">
+      <c r="A124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L124" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+    </row>
+    <row r="125" spans="1:175">
+      <c r="A125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L125" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="1:175">
+      <c r="A126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L126" s="5">
+        <v>15000</v>
+      </c>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+    </row>
+    <row r="127" spans="1:175">
+      <c r="A127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L127" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+    </row>
+    <row r="128" spans="1:175">
+      <c r="A128" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L128" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+    </row>
+    <row r="129" spans="1:175">
+      <c r="A129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L129" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="1:175">
+      <c r="A130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L130" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+    </row>
+    <row r="131" spans="1:175">
+      <c r="A131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="1:175">
+      <c r="A132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L132" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+    </row>
+    <row r="133" spans="1:175">
+      <c r="A133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L133" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+    </row>
+    <row r="134" spans="1:175">
+      <c r="A134" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L134" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+    </row>
+    <row r="135" spans="1:175">
+      <c r="A135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L135" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="1:175">
+      <c r="A136" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L136" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+    </row>
+    <row r="137" spans="1:175">
+      <c r="A137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+    </row>
+    <row r="138" spans="1:175">
+      <c r="A138" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+    </row>
+    <row r="139" spans="1:175">
+      <c r="A139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L139" s="6">
+        <v>16400</v>
+      </c>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+    </row>
+    <row r="140" spans="1:175">
+      <c r="A140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L140" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+    </row>
+    <row r="141" spans="1:175">
+      <c r="A141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L141" s="6">
+        <v>16000</v>
+      </c>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+    </row>
+    <row r="142" spans="1:175">
+      <c r="A142" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+    </row>
+    <row r="143" spans="1:175">
+      <c r="A143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="1:175">
+      <c r="A144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+    </row>
+    <row r="145" spans="1:175">
+      <c r="A145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L145" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="1:175">
+      <c r="A146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L146" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="1:175">
+      <c r="A147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L147" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+    </row>
+    <row r="148" spans="1:175">
+      <c r="A148" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L148" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="1:175">
+      <c r="A149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L149" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+    </row>
+    <row r="150" spans="1:175">
+      <c r="A150" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+    </row>
+    <row r="151" spans="1:175">
+      <c r="A151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L151" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+    </row>
+    <row r="152" spans="1:175">
+      <c r="A152" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+    </row>
+    <row r="153" spans="1:175">
+      <c r="A153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L153" s="6">
+        <v>12000</v>
+      </c>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+    </row>
+    <row r="154" spans="1:175">
+      <c r="A154" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+    </row>
+    <row r="155" spans="1:175">
+      <c r="A155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K155" s="4"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="1:175">
+      <c r="A156" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L156" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+    </row>
+    <row r="157" spans="1:175">
+      <c r="A157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+    </row>
+    <row r="158" spans="1:175">
+      <c r="A158" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L158" s="5">
+        <v>12000</v>
+      </c>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+    </row>
+    <row r="159" spans="1:175">
+      <c r="A159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L159" s="6">
+        <v>16400</v>
+      </c>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+    </row>
+    <row r="160" spans="1:175">
+      <c r="A160" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L160" s="5">
+        <v>16400</v>
+      </c>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+    </row>
+    <row r="161" spans="1:175">
+      <c r="A161" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L161" s="6">
+        <v>16400</v>
+      </c>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+    </row>
+    <row r="162" spans="1:175">
+      <c r="A162" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L162" s="5">
+        <v>16400</v>
+      </c>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -2227,7 +8169,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:CA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -2238,8 +8180,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -2313,17 +8255,21 @@
     <col min="73" max="73" width="9.10" bestFit="true" style="0"/>
     <col min="74" max="74" width="9.10" bestFit="true" style="0"/>
     <col min="75" max="75" width="9.10" bestFit="true" style="0"/>
+    <col min="76" max="76" width="9.10" bestFit="true" style="0"/>
+    <col min="77" max="77" width="9.10" bestFit="true" style="0"/>
+    <col min="78" max="78" width="9.10" bestFit="true" style="0"/>
+    <col min="79" max="79" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:79">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2332,7 +8278,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="8" t="s">
-        <v>110</v>
+        <v>298</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2341,7 +8287,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="7" t="s">
-        <v>111</v>
+        <v>299</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -2350,7 +8296,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="8" t="s">
-        <v>112</v>
+        <v>300</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
@@ -2359,7 +8305,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="7" t="s">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
@@ -2368,124 +8314,126 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:79">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>303</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>124</v>
+        <v>312</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>125</v>
+        <v>313</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>138</v>
+        <v>326</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>140</v>
+        <v>328</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>141</v>
+        <v>329</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>142</v>
+        <v>330</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>143</v>
+        <v>331</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>144</v>
+        <v>332</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>145</v>
+        <v>333</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>146</v>
+        <v>334</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>147</v>
+        <v>335</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:75">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>337</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -2499,36 +8447,262 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="R3" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="S3" s="9"/>
       <c r="T3" s="9" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="9" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
+      <c r="AA3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
+      <c r="AF3" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
+      <c r="AH3" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
+    </row>
+    <row r="4" spans="1:79">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+    </row>
+    <row r="6" spans="1:79">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
